--- a/biology/Zoologie/Conure_des_Santa_Marta/Conure_des_Santa_Marta.xlsx
+++ b/biology/Zoologie/Conure_des_Santa_Marta/Conure_des_Santa_Marta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura viridicata
 La Conure des Santa Marta (Pyrrhura viridicata) est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure environ 25 cm. Elle est proche de la Conure à ventre rouge mais présente un plumage essentiellement vert avec une bande rouge sur la poitrine et un plastron ventral plus réduit. Elle a des nuances rouges sur les épaules, sur le dessous de la queue, sous les ailes (où elles sont mélangées à du jaune) et sur les zones périauriculaires.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts primaires entre 1 800 et 2 800 m d'altitude.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était très répandue dans une aire très restreinte dans la Sierra Nevada de Santa Marta en Colombie.
 </t>
@@ -605,7 +623,9 @@
           <t>Populations et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cultures de marijuana et de coca, puis les herbicides utilisés pour détruire les cultures de drogues ont réduit l'habitat de cette espèce de 85 % la conduisant ainsi au bord de l'extinction. Il ne reste en effet que 200 individus à l'état sauvage.
 </t>
